--- a/images/clusrun-throughput-2.xlsx
+++ b/images/clusrun-throughput-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\clusrun\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6799F02D-ECDE-49BB-A037-248BF1239231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5300CD-1E5C-45EB-BD31-E00F68B43DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2E55AE50-9781-422C-B37B-4204F5793C84}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>16 headnodes</t>
   </si>
   <si>
-    <t>clusrun (Linux headnodes + 84 Windows VMs </t>
-  </si>
-  <si>
     <t>clusrun (Linux headnodes + 84 Linux VMs * 10 containers)</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>clusrun (Linux headnodes + 84 Linux VMs)</t>
+  </si>
+  <si>
+    <t>clusrun (Linux headnodes + 84 Windows VMs)</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>clusrun (Linux headnodes + 84 Windows VMs </c:v>
+                  <c:v>clusrun (Linux headnodes + 84 Windows VMs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2385,7 +2385,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>4527</v>
@@ -2406,7 +2406,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>4527</v>
@@ -2427,7 +2427,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>8602</v>
@@ -2448,7 +2448,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>10726</v>
@@ -2469,7 +2469,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>19114</v>
@@ -2490,7 +2490,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>21120</v>
